--- a/BN/wwwroot/excel/Survey/NeedSurveyFormat.xlsx
+++ b/BN/wwwroot/excel/Survey/NeedSurveyFormat.xlsx
@@ -29,21 +29,6 @@
     <t>EMP_NO</t>
   </si>
   <si>
-    <t>SNAME_ENG</t>
-  </si>
-  <si>
-    <t>GNAME_ENG</t>
-  </si>
-  <si>
-    <t>FNAME_ENG</t>
-  </si>
-  <si>
-    <t>DIV_ABB_NAME</t>
-  </si>
-  <si>
-    <t>DEPT_ABB_NAME</t>
-  </si>
-  <si>
     <t>BAND</t>
   </si>
   <si>
@@ -51,6 +36,21 @@
   </si>
   <si>
     <t>ICD Need survey  2021</t>
+  </si>
+  <si>
+    <t>TITLE</t>
+  </si>
+  <si>
+    <t>FIRSTNAME</t>
+  </si>
+  <si>
+    <t>LASTNAME</t>
+  </si>
+  <si>
+    <t>DIV_ABB</t>
+  </si>
+  <si>
+    <t>DEPT_ABB</t>
   </si>
 </sst>
 </file>
@@ -408,12 +408,12 @@
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
@@ -424,7 +424,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -432,25 +432,25 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
